--- a/Code/Results/Cases/Case_2_194/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_194/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9631871436970698</v>
+        <v>0.6316415812111416</v>
       </c>
       <c r="C2">
-        <v>0.132408341390553</v>
+        <v>0.2499689866440526</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09991965051944263</v>
+        <v>0.2247082988006497</v>
       </c>
       <c r="F2">
-        <v>1.278959976101376</v>
+        <v>2.482278692466352</v>
       </c>
       <c r="G2">
-        <v>0.0008342799377701882</v>
+        <v>0.002511640963699269</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09312705446345859</v>
+        <v>0.1016191822282124</v>
       </c>
       <c r="K2">
-        <v>0.7329571492481932</v>
+        <v>0.2619705179571525</v>
       </c>
       <c r="L2">
-        <v>0.2444774793012101</v>
+        <v>0.3666456695819562</v>
       </c>
       <c r="M2">
-        <v>0.246518334104497</v>
+        <v>0.2302845244533209</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.410274236886494</v>
+        <v>5.049977378944504</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8388341916065372</v>
+        <v>0.5980219932806392</v>
       </c>
       <c r="C3">
-        <v>0.1341028894793173</v>
+        <v>0.2507483669695638</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09562729908398282</v>
+        <v>0.2246401704352969</v>
       </c>
       <c r="F3">
-        <v>1.23900952483686</v>
+        <v>2.486648447878025</v>
       </c>
       <c r="G3">
-        <v>0.0008381373795362369</v>
+        <v>0.00251412383306227</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09026422537415968</v>
+        <v>0.1004741009542549</v>
       </c>
       <c r="K3">
-        <v>0.6385270522988122</v>
+        <v>0.2337415419360411</v>
       </c>
       <c r="L3">
-        <v>0.2207394371263405</v>
+        <v>0.3619205781731125</v>
       </c>
       <c r="M3">
-        <v>0.2166168170900846</v>
+        <v>0.2228534681675818</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.420468924627869</v>
+        <v>5.082467025354518</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7628025051929797</v>
+        <v>0.5775950176231675</v>
       </c>
       <c r="C4">
-        <v>0.1351950270471658</v>
+        <v>0.251256948581867</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.09308639454808443</v>
+        <v>0.2246703141947606</v>
       </c>
       <c r="F4">
-        <v>1.216355648379661</v>
+        <v>2.490421521384903</v>
       </c>
       <c r="G4">
-        <v>0.000840584270171205</v>
+        <v>0.002515729984375064</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08850650553735306</v>
+        <v>0.09976624546303015</v>
       </c>
       <c r="K4">
-        <v>0.5806084564699319</v>
+        <v>0.2164239432800343</v>
       </c>
       <c r="L4">
-        <v>0.2063384249164955</v>
+        <v>0.3591531091862095</v>
       </c>
       <c r="M4">
-        <v>0.1983768370387828</v>
+        <v>0.2183778133635492</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.430804294696287</v>
+        <v>5.104616984303476</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.731887399287416</v>
+        <v>0.5693256787541543</v>
       </c>
       <c r="C5">
-        <v>0.1356530147167216</v>
+        <v>0.251471773769115</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09207392459613928</v>
+        <v>0.224700748036053</v>
       </c>
       <c r="F5">
-        <v>1.207576749425968</v>
+        <v>2.49223350082989</v>
       </c>
       <c r="G5">
-        <v>0.0008416014529320417</v>
+        <v>0.002516405098437591</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08779011659476055</v>
+        <v>0.09947660648433754</v>
       </c>
       <c r="K5">
-        <v>0.5570131910224916</v>
+        <v>0.2093710843505363</v>
       </c>
       <c r="L5">
-        <v>0.2005108205737045</v>
+        <v>0.3580591296170326</v>
       </c>
       <c r="M5">
-        <v>0.1909708094779674</v>
+        <v>0.2165759947571146</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.436005073053906</v>
+        <v>5.114197030583753</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7267577520216548</v>
+        <v>0.5679558902484416</v>
       </c>
       <c r="C6">
-        <v>0.1357298426109175</v>
+        <v>0.2515079033874663</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09190716869125382</v>
+        <v>0.2247068992788002</v>
       </c>
       <c r="F6">
-        <v>1.206145826774936</v>
+        <v>2.492550962583962</v>
       </c>
       <c r="G6">
-        <v>0.0008417715762679314</v>
+        <v>0.002516518446219159</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08767115108991774</v>
+        <v>0.09942844127355954</v>
       </c>
       <c r="K6">
-        <v>0.5530954002502284</v>
+        <v>0.2082002283000719</v>
       </c>
       <c r="L6">
-        <v>0.1995455414005889</v>
+        <v>0.3578795202534337</v>
       </c>
       <c r="M6">
-        <v>0.1897425799759667</v>
+        <v>0.2162781404313279</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.436927377642419</v>
+        <v>5.115821243049751</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7623853121447723</v>
+        <v>0.5774832716569165</v>
       </c>
       <c r="C7">
-        <v>0.135201151342466</v>
+        <v>0.2512598150944072</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.09307264808180093</v>
+        <v>0.2246706510789345</v>
       </c>
       <c r="F7">
-        <v>1.216235444358972</v>
+        <v>2.49044484682107</v>
       </c>
       <c r="G7">
-        <v>0.0008405979066322122</v>
+        <v>0.002515739005747919</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08849684464071572</v>
+        <v>0.09976234405344186</v>
       </c>
       <c r="K7">
-        <v>0.5802902249017734</v>
+        <v>0.2163288084019541</v>
       </c>
       <c r="L7">
-        <v>0.206259669814898</v>
+        <v>0.3591382183920686</v>
       </c>
       <c r="M7">
-        <v>0.1982768518734481</v>
+        <v>0.2183534239283098</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.430870475777979</v>
+        <v>5.104743941683353</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9202357818757321</v>
+        <v>0.620005155105531</v>
       </c>
       <c r="C8">
-        <v>0.1329818569060546</v>
+        <v>0.2502314947151447</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09841950144644684</v>
+        <v>0.2246699001405119</v>
       </c>
       <c r="F8">
-        <v>1.264784020341395</v>
+        <v>2.48355934016223</v>
       </c>
       <c r="G8">
-        <v>0.0008355939195466851</v>
+        <v>0.002512480145121716</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09213986066258073</v>
+        <v>0.1012253586216012</v>
       </c>
       <c r="K8">
-        <v>0.7003794996965809</v>
+        <v>0.2522342649839118</v>
       </c>
       <c r="L8">
-        <v>0.236254646855997</v>
+        <v>0.3649887861668901</v>
       </c>
       <c r="M8">
-        <v>0.2361814771774995</v>
+        <v>0.2277043229524054</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.412921304267456</v>
+        <v>5.060723102516647</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.232941354223357</v>
+        <v>0.7050789492779757</v>
       </c>
       <c r="C9">
-        <v>0.1290428702643567</v>
+        <v>0.2484523869822048</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1096950485029176</v>
+        <v>0.2252374330408209</v>
       </c>
       <c r="F9">
-        <v>1.375778171354852</v>
+        <v>2.478693475755989</v>
       </c>
       <c r="G9">
-        <v>0.0008263870517626216</v>
+        <v>0.002506734700793566</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09929052587554565</v>
+        <v>0.1040558267121305</v>
       </c>
       <c r="K9">
-        <v>0.9367856670653509</v>
+        <v>0.3227503885056251</v>
       </c>
       <c r="L9">
-        <v>0.2965978283342849</v>
+        <v>0.3775172160872131</v>
       </c>
       <c r="M9">
-        <v>0.3116174907481337</v>
+        <v>0.2467261818779534</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.411770836699787</v>
+        <v>4.991854050425928</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.46553688855397</v>
+        <v>0.7685892072335037</v>
       </c>
       <c r="C10">
-        <v>0.1264051901544221</v>
+        <v>0.247288752190741</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.118519990702957</v>
+        <v>0.2259987364270692</v>
       </c>
       <c r="F10">
-        <v>1.468291792612789</v>
+        <v>2.480370120293784</v>
       </c>
       <c r="G10">
-        <v>0.000819968324337791</v>
+        <v>0.002502902965665231</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1045578382890753</v>
+        <v>0.1061112259522794</v>
       </c>
       <c r="K10">
-        <v>1.111668610855276</v>
+        <v>0.3746090607895383</v>
       </c>
       <c r="L10">
-        <v>0.3420715469730027</v>
+        <v>0.3873587979172584</v>
       </c>
       <c r="M10">
-        <v>0.3679489030348861</v>
+        <v>0.2611127396596373</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.434200844098427</v>
+        <v>4.951886344891335</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.572190992330832</v>
+        <v>0.7976958320494987</v>
       </c>
       <c r="C11">
-        <v>0.1252620183740518</v>
+        <v>0.2467902728652476</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.122666053402078</v>
+        <v>0.2264193207178842</v>
       </c>
       <c r="F11">
-        <v>1.513077579872544</v>
+        <v>2.482270545451826</v>
       </c>
       <c r="G11">
-        <v>0.0008171177333887423</v>
+        <v>0.002501243550332621</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1069593564217257</v>
+        <v>0.107040905753415</v>
       </c>
       <c r="K11">
-        <v>1.191640865120689</v>
+        <v>0.3982092593583673</v>
       </c>
       <c r="L11">
-        <v>0.3630563789770775</v>
+        <v>0.3919729983736602</v>
       </c>
       <c r="M11">
-        <v>0.3938289378358775</v>
+        <v>0.2677456231846378</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.45005816912672</v>
+        <v>4.936010156161331</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.612719072221608</v>
+        <v>0.8087482222837252</v>
       </c>
       <c r="C12">
-        <v>0.1248373950525838</v>
+        <v>0.2466059296246073</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1242561971754164</v>
+        <v>0.2265892160291685</v>
       </c>
       <c r="F12">
-        <v>1.53045341689338</v>
+        <v>2.483153514304519</v>
       </c>
       <c r="G12">
-        <v>0.0008160477724528792</v>
+        <v>0.002500627141204735</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1078697171216376</v>
+        <v>0.1073921692607911</v>
       </c>
       <c r="K12">
-        <v>1.221997763866881</v>
+        <v>0.4071470610232097</v>
       </c>
       <c r="L12">
-        <v>0.3710501187471351</v>
+        <v>0.3937398716669662</v>
       </c>
       <c r="M12">
-        <v>0.4036705581536921</v>
+        <v>0.2702698926457856</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.456929766045562</v>
+        <v>4.930329576054334</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.603984060401785</v>
+        <v>0.8063665530126798</v>
       </c>
       <c r="C13">
-        <v>0.1249284754909468</v>
+        <v>0.2466454349421063</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1239128164369667</v>
+        <v>0.2265521540918876</v>
       </c>
       <c r="F13">
-        <v>1.526692231324276</v>
+        <v>2.4829560920072</v>
       </c>
       <c r="G13">
-        <v>0.0008162777931956086</v>
+        <v>0.002500759364160166</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1076736090152792</v>
+        <v>0.1073165536476424</v>
       </c>
       <c r="K13">
-        <v>1.21545638934009</v>
+        <v>0.4052221116022281</v>
       </c>
       <c r="L13">
-        <v>0.3693263512362961</v>
+        <v>0.3933584757314463</v>
       </c>
       <c r="M13">
-        <v>0.4015490671143382</v>
+        <v>0.2697256909617209</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.455410397570631</v>
+        <v>4.93153825386139</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.575522332855883</v>
+        <v>0.798604514407657</v>
       </c>
       <c r="C14">
-        <v>0.1252269179010348</v>
+        <v>0.2467750183535387</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1227964650877773</v>
+        <v>0.2264330853682743</v>
       </c>
       <c r="F14">
-        <v>1.51449858701055</v>
+        <v>2.482339916292887</v>
       </c>
       <c r="G14">
-        <v>0.0008170295195934515</v>
+        <v>0.002501192598270264</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1070342320572948</v>
+        <v>0.1070698202784541</v>
       </c>
       <c r="K14">
-        <v>1.194136800652757</v>
+        <v>0.3989445617675074</v>
       </c>
       <c r="L14">
-        <v>0.363713056327498</v>
+        <v>0.3921179686675345</v>
       </c>
       <c r="M14">
-        <v>0.3946377551505762</v>
+        <v>0.2679530459763058</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.450605806513494</v>
+        <v>4.935536170561164</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.558107584151799</v>
+        <v>0.7938539741218165</v>
       </c>
       <c r="C15">
-        <v>0.1254108032014649</v>
+        <v>0.246854967023971</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1221153248759208</v>
+        <v>0.2263615350905148</v>
       </c>
       <c r="F15">
-        <v>1.507084724689122</v>
+        <v>2.481983751450272</v>
       </c>
       <c r="G15">
-        <v>0.0008174911957568766</v>
+        <v>0.002501459524496706</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1066427255836118</v>
+        <v>0.106918586023113</v>
       </c>
       <c r="K15">
-        <v>1.181087869721864</v>
+        <v>0.3950994879228631</v>
       </c>
       <c r="L15">
-        <v>0.3602810357252082</v>
+        <v>0.3913606669909626</v>
       </c>
       <c r="M15">
-        <v>0.3904099185862435</v>
+        <v>0.2668688779353658</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.447777396018751</v>
+        <v>4.938028163093804</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.458585388239754</v>
+        <v>0.7666913019581614</v>
       </c>
       <c r="C16">
-        <v>0.1264810500600753</v>
+        <v>0.2473219484925018</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1182517839782875</v>
+        <v>0.2259727403650551</v>
       </c>
       <c r="F16">
-        <v>1.465421639120919</v>
+        <v>2.4802687925729</v>
       </c>
       <c r="G16">
-        <v>0.0008201559723582782</v>
+        <v>0.002503013091212808</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1044010172566274</v>
+        <v>0.1060503602478704</v>
       </c>
       <c r="K16">
-        <v>1.106451732128335</v>
+        <v>0.3730668846302194</v>
       </c>
       <c r="L16">
-        <v>0.3407065085221035</v>
+        <v>0.3870599968786337</v>
       </c>
       <c r="M16">
-        <v>0.366263107763146</v>
+        <v>0.2606810290328028</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.433282809349663</v>
+        <v>4.952970270325068</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.397761276972261</v>
+        <v>0.7500826156762344</v>
       </c>
       <c r="C17">
-        <v>0.127152217928284</v>
+        <v>0.2476163185242442</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1159161520838445</v>
+        <v>0.2257532125868416</v>
       </c>
       <c r="F17">
-        <v>1.44057380947774</v>
+        <v>2.479507915253023</v>
       </c>
       <c r="G17">
-        <v>0.0008218081541444404</v>
+        <v>0.002503987541912695</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1030273088221314</v>
+        <v>0.1055163524983094</v>
       </c>
       <c r="K17">
-        <v>1.060780770975896</v>
+        <v>0.3595526994470788</v>
       </c>
       <c r="L17">
-        <v>0.328777618960487</v>
+        <v>0.3844567083979769</v>
       </c>
       <c r="M17">
-        <v>0.3515183396938255</v>
+        <v>0.256907498262585</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.425875998090788</v>
+        <v>4.962727135592786</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.362855200096362</v>
+        <v>0.7405500599282107</v>
       </c>
       <c r="C18">
-        <v>0.1275435874349888</v>
+        <v>0.2477885385148504</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1145850642298996</v>
+        <v>0.225633939028846</v>
       </c>
       <c r="F18">
-        <v>1.426534425823178</v>
+        <v>2.479177382419678</v>
       </c>
       <c r="G18">
-        <v>0.0008227650000191288</v>
+        <v>0.002504555898100197</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1022376838701646</v>
+        <v>0.10520870468185</v>
       </c>
       <c r="K18">
-        <v>1.034550458985194</v>
+        <v>0.3517806110440631</v>
       </c>
       <c r="L18">
-        <v>0.3219442693398662</v>
+        <v>0.3829722903898158</v>
       </c>
       <c r="M18">
-        <v>0.3430611953123588</v>
+        <v>0.2547453905509798</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.422144522860179</v>
+        <v>4.968556020928048</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.351049502801629</v>
+        <v>0.737326010204157</v>
       </c>
       <c r="C19">
-        <v>0.1276770107959706</v>
+        <v>0.2478473489298167</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1141364588966454</v>
+        <v>0.2255947576279169</v>
       </c>
       <c r="F19">
-        <v>1.421823463046366</v>
+        <v>2.479083873438015</v>
       </c>
       <c r="G19">
-        <v>0.0008230901112884731</v>
+        <v>0.002504749688405014</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1019704102148431</v>
+        <v>0.1051044550159759</v>
       </c>
       <c r="K19">
-        <v>1.025675539147329</v>
+        <v>0.3491492856905722</v>
       </c>
       <c r="L19">
-        <v>0.319635268497052</v>
+        <v>0.3824719165298944</v>
       </c>
       <c r="M19">
-        <v>0.3402016736877016</v>
+        <v>0.2540147733457019</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.420970341766633</v>
+        <v>4.970566853867439</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.404227866377767</v>
+        <v>0.7518485401755868</v>
       </c>
       <c r="C20">
-        <v>0.1270802183768964</v>
+        <v>0.2475846816890908</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1161635020124443</v>
+        <v>0.2257758583044556</v>
       </c>
       <c r="F20">
-        <v>1.443192580602286</v>
+        <v>2.479577829156341</v>
       </c>
       <c r="G20">
-        <v>0.0008216316015105702</v>
+        <v>0.002503882994977008</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1031734898312493</v>
+        <v>0.1055732504939684</v>
       </c>
       <c r="K20">
-        <v>1.065638454555483</v>
+        <v>0.3609912161607554</v>
       </c>
       <c r="L20">
-        <v>0.330044558881724</v>
+        <v>0.384732496375193</v>
       </c>
       <c r="M20">
-        <v>0.3530854633883322</v>
+        <v>0.2573083364100626</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.426609367177292</v>
+        <v>4.961666043336066</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.583878261542935</v>
+        <v>0.800883594921487</v>
       </c>
       <c r="C21">
-        <v>0.1251390326931698</v>
+        <v>0.2467368367491787</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1231238085190896</v>
+        <v>0.2264677706629996</v>
       </c>
       <c r="F21">
-        <v>1.51806862098735</v>
+        <v>2.482516471857153</v>
       </c>
       <c r="G21">
-        <v>0.0008168084654804281</v>
+        <v>0.00250106502226294</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1072220050554478</v>
+        <v>0.1071423133370786</v>
       </c>
       <c r="K21">
-        <v>1.200396785769669</v>
+        <v>0.4007884088674984</v>
       </c>
       <c r="L21">
-        <v>0.3653604993085793</v>
+        <v>0.3924818056227082</v>
       </c>
       <c r="M21">
-        <v>0.3966666110871344</v>
+        <v>0.2684733757601236</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.45199305989442</v>
+        <v>4.934352892648064</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.702118845688886</v>
+        <v>0.8331074030706986</v>
       </c>
       <c r="C22">
-        <v>0.1239186262984369</v>
+        <v>0.2462084763161414</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1277906603042958</v>
+        <v>0.2269819072371497</v>
       </c>
       <c r="F22">
-        <v>1.569446151893175</v>
+        <v>2.485388861871598</v>
       </c>
       <c r="G22">
-        <v>0.0008137113762080641</v>
+        <v>0.002499293090582045</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1098736207190498</v>
+        <v>0.1081631959107128</v>
       </c>
       <c r="K22">
-        <v>1.288902307498972</v>
+        <v>0.42680332781066</v>
       </c>
       <c r="L22">
-        <v>0.3887190671008227</v>
+        <v>0.3976604573597768</v>
       </c>
       <c r="M22">
-        <v>0.4253932769153934</v>
+        <v>0.2758433925478698</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.4736627488154</v>
+        <v>4.918433700062366</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.638929170922353</v>
+        <v>0.8158930068223071</v>
       </c>
       <c r="C23">
-        <v>0.1245655227896378</v>
+        <v>0.2464881215504775</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1252886686966797</v>
+        <v>0.226701852551674</v>
       </c>
       <c r="F23">
-        <v>1.54179180237891</v>
+        <v>2.483768815406364</v>
       </c>
       <c r="G23">
-        <v>0.0008153594724072808</v>
+        <v>0.002500232437423657</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.108457820564702</v>
+        <v>0.1076187581077832</v>
       </c>
       <c r="K23">
-        <v>1.241620998832076</v>
+        <v>0.4129183484985219</v>
       </c>
       <c r="L23">
-        <v>0.3762252641229935</v>
+        <v>0.3948861310900327</v>
       </c>
       <c r="M23">
-        <v>0.4100373229481846</v>
+        <v>0.2719032496531426</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.461613629016171</v>
+        <v>4.92675337521564</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.401304128003233</v>
+        <v>0.7510501158257057</v>
       </c>
       <c r="C24">
-        <v>0.1271127522322111</v>
+        <v>0.2475989754119503</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1160516387629436</v>
+        <v>0.2257655985675804</v>
       </c>
       <c r="F24">
-        <v>1.442007870150306</v>
+        <v>2.479545888055114</v>
       </c>
       <c r="G24">
-        <v>0.0008217113991017831</v>
+        <v>0.002503930235149757</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1031074009798729</v>
+        <v>0.1055475289007504</v>
       </c>
       <c r="K24">
-        <v>1.063442214150996</v>
+        <v>0.360340870832033</v>
       </c>
       <c r="L24">
-        <v>0.3294716986431041</v>
+        <v>0.384607774471263</v>
       </c>
       <c r="M24">
-        <v>0.3523769053926955</v>
+        <v>0.2571270945913682</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.42627617417142</v>
+        <v>4.962145079294885</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.147916136585195</v>
+        <v>0.6818858339525207</v>
       </c>
       <c r="C25">
-        <v>0.1300638162116883</v>
+        <v>0.2489083964042145</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1065542192821312</v>
+        <v>0.2250232477095722</v>
       </c>
       <c r="F25">
-        <v>1.343927470712543</v>
+        <v>2.47908660878862</v>
       </c>
       <c r="G25">
-        <v>0.0008288152693216624</v>
+        <v>0.002508220327561111</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09735440475663282</v>
+        <v>0.1032943017301733</v>
       </c>
       <c r="K25">
-        <v>0.8726705777243353</v>
+        <v>0.3036640457974329</v>
       </c>
       <c r="L25">
-        <v>0.2800893386021954</v>
+        <v>0.374015620599252</v>
       </c>
       <c r="M25">
-        <v>0.2910684088018769</v>
+        <v>0.2415076037814003</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.408186771100162</v>
+        <v>5.008617351203725</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_194/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_194/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6316415812111416</v>
+        <v>0.9631871436969277</v>
       </c>
       <c r="C2">
-        <v>0.2499689866440526</v>
+        <v>0.1324083413904127</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2247082988006497</v>
+        <v>0.09991965051945684</v>
       </c>
       <c r="F2">
-        <v>2.482278692466352</v>
+        <v>1.278959976101362</v>
       </c>
       <c r="G2">
-        <v>0.002511640963699269</v>
+        <v>0.0008342799377712984</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1016191822282124</v>
+        <v>0.0931270544633982</v>
       </c>
       <c r="K2">
-        <v>0.2619705179571525</v>
+        <v>0.732957149248108</v>
       </c>
       <c r="L2">
-        <v>0.3666456695819562</v>
+        <v>0.2444774793012243</v>
       </c>
       <c r="M2">
-        <v>0.2302845244533209</v>
+        <v>0.2465183341045041</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.049977378944504</v>
+        <v>2.410274236886465</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5980219932806392</v>
+        <v>0.8388341916063382</v>
       </c>
       <c r="C3">
-        <v>0.2507483669695638</v>
+        <v>0.134102889479319</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2246401704352969</v>
+        <v>0.09562729908400058</v>
       </c>
       <c r="F3">
-        <v>2.486648447878025</v>
+        <v>1.23900952483686</v>
       </c>
       <c r="G3">
-        <v>0.00251412383306227</v>
+        <v>0.0008381373795971518</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1004741009542549</v>
+        <v>0.09026422537412415</v>
       </c>
       <c r="K3">
-        <v>0.2337415419360411</v>
+        <v>0.6385270522987696</v>
       </c>
       <c r="L3">
-        <v>0.3619205781731125</v>
+        <v>0.2207394371263831</v>
       </c>
       <c r="M3">
-        <v>0.2228534681675818</v>
+        <v>0.2166168170901059</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.082467025354518</v>
+        <v>2.420468924627826</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5775950176231675</v>
+        <v>0.7628025051929512</v>
       </c>
       <c r="C4">
-        <v>0.251256948581867</v>
+        <v>0.1351950270472457</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2246703141947606</v>
+        <v>0.09308639454809864</v>
       </c>
       <c r="F4">
-        <v>2.490421521384903</v>
+        <v>1.216355648379647</v>
       </c>
       <c r="G4">
-        <v>0.002515729984375064</v>
+        <v>0.0008405842702298885</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09976624546303015</v>
+        <v>0.08850650553728556</v>
       </c>
       <c r="K4">
-        <v>0.2164239432800343</v>
+        <v>0.5806084564699177</v>
       </c>
       <c r="L4">
-        <v>0.3591531091862095</v>
+        <v>0.2063384249164457</v>
       </c>
       <c r="M4">
-        <v>0.2183778133635492</v>
+        <v>0.1983768370387899</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.104616984303476</v>
+        <v>2.430804294696301</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5693256787541543</v>
+        <v>0.7318873992875297</v>
       </c>
       <c r="C5">
-        <v>0.251471773769115</v>
+        <v>0.1356530147164818</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.224700748036053</v>
+        <v>0.09207392459614638</v>
       </c>
       <c r="F5">
-        <v>2.49223350082989</v>
+        <v>1.207576749425975</v>
       </c>
       <c r="G5">
-        <v>0.002516405098437591</v>
+        <v>0.0008416014528722781</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09947660648433754</v>
+        <v>0.0877901165946966</v>
       </c>
       <c r="K5">
-        <v>0.2093710843505363</v>
+        <v>0.5570131910226195</v>
       </c>
       <c r="L5">
-        <v>0.3580591296170326</v>
+        <v>0.2005108205737045</v>
       </c>
       <c r="M5">
-        <v>0.2165759947571146</v>
+        <v>0.1909708094779639</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.114197030583753</v>
+        <v>2.436005073053877</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5679558902484416</v>
+        <v>0.7267577520216548</v>
       </c>
       <c r="C6">
-        <v>0.2515079033874663</v>
+        <v>0.1357298426109246</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2247068992788002</v>
+        <v>0.09190716869125382</v>
       </c>
       <c r="F6">
-        <v>2.492550962583962</v>
+        <v>1.206145826774929</v>
       </c>
       <c r="G6">
-        <v>0.002516518446219159</v>
+        <v>0.0008417715762071132</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09942844127355954</v>
+        <v>0.08767115108990353</v>
       </c>
       <c r="K6">
-        <v>0.2082002283000719</v>
+        <v>0.5530954002502</v>
       </c>
       <c r="L6">
-        <v>0.3578795202534337</v>
+        <v>0.1995455414005605</v>
       </c>
       <c r="M6">
-        <v>0.2162781404313279</v>
+        <v>0.1897425799759844</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.115821243049751</v>
+        <v>2.436927377642448</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5774832716569165</v>
+        <v>0.7623853121446018</v>
       </c>
       <c r="C7">
-        <v>0.2512598150944072</v>
+        <v>0.1352011513424589</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2246706510789345</v>
+        <v>0.09307264808183291</v>
       </c>
       <c r="F7">
-        <v>2.49044484682107</v>
+        <v>1.216235444359</v>
       </c>
       <c r="G7">
-        <v>0.002515739005747919</v>
+        <v>0.0008405979066313241</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09976234405344186</v>
+        <v>0.08849684464072283</v>
       </c>
       <c r="K7">
-        <v>0.2163288084019541</v>
+        <v>0.5802902249015744</v>
       </c>
       <c r="L7">
-        <v>0.3591382183920686</v>
+        <v>0.2062596698149406</v>
       </c>
       <c r="M7">
-        <v>0.2183534239283098</v>
+        <v>0.1982768518734694</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.104743941683353</v>
+        <v>2.430870475777908</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.620005155105531</v>
+        <v>0.9202357818757037</v>
       </c>
       <c r="C8">
-        <v>0.2502314947151447</v>
+        <v>0.1329818569058094</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2246699001405119</v>
+        <v>0.09841950144646106</v>
       </c>
       <c r="F8">
-        <v>2.48355934016223</v>
+        <v>1.264784020341409</v>
       </c>
       <c r="G8">
-        <v>0.002512480145121716</v>
+        <v>0.000835593919487605</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1012253586216012</v>
+        <v>0.09213986066253099</v>
       </c>
       <c r="K8">
-        <v>0.2522342649839118</v>
+        <v>0.7003794996965951</v>
       </c>
       <c r="L8">
-        <v>0.3649887861668901</v>
+        <v>0.2362546468558691</v>
       </c>
       <c r="M8">
-        <v>0.2277043229524054</v>
+        <v>0.2361814771774995</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.060723102516647</v>
+        <v>2.412921304267485</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7050789492779757</v>
+        <v>1.232941354223442</v>
       </c>
       <c r="C9">
-        <v>0.2484523869822048</v>
+        <v>0.1290428702646906</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2252374330408209</v>
+        <v>0.1096950485029318</v>
       </c>
       <c r="F9">
-        <v>2.478693475755989</v>
+        <v>1.375778171354838</v>
       </c>
       <c r="G9">
-        <v>0.002506734700793566</v>
+        <v>0.0008263870517969951</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1040558267121305</v>
+        <v>0.09929052587558118</v>
       </c>
       <c r="K9">
-        <v>0.3227503885056251</v>
+        <v>0.9367856670653225</v>
       </c>
       <c r="L9">
-        <v>0.3775172160872131</v>
+        <v>0.2965978283343418</v>
       </c>
       <c r="M9">
-        <v>0.2467261818779534</v>
+        <v>0.3116174907481124</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.991854050425928</v>
+        <v>2.411770836699759</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7685892072335037</v>
+        <v>1.465536888553913</v>
       </c>
       <c r="C10">
-        <v>0.247288752190741</v>
+        <v>0.1264051901542906</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2259987364270692</v>
+        <v>0.118519990702957</v>
       </c>
       <c r="F10">
-        <v>2.480370120293784</v>
+        <v>1.468291792612789</v>
       </c>
       <c r="G10">
-        <v>0.002502902965665231</v>
+        <v>0.0008199683243381796</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1061112259522794</v>
+        <v>0.1045578382889936</v>
       </c>
       <c r="K10">
-        <v>0.3746090607895383</v>
+        <v>1.111668610855276</v>
       </c>
       <c r="L10">
-        <v>0.3873587979172584</v>
+        <v>0.3420715469729316</v>
       </c>
       <c r="M10">
-        <v>0.2611127396596373</v>
+        <v>0.3679489030348932</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.951886344891335</v>
+        <v>2.434200844098427</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7976958320494987</v>
+        <v>1.572190992330718</v>
       </c>
       <c r="C11">
-        <v>0.2467902728652476</v>
+        <v>0.1252620183735793</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2264193207178842</v>
+        <v>0.1226660534020958</v>
       </c>
       <c r="F11">
-        <v>2.482270545451826</v>
+        <v>1.513077579872544</v>
       </c>
       <c r="G11">
-        <v>0.002501243550332621</v>
+        <v>0.000817117733418719</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.107040905753415</v>
+        <v>0.106959356421676</v>
       </c>
       <c r="K11">
-        <v>0.3982092593583673</v>
+        <v>1.191640865120632</v>
       </c>
       <c r="L11">
-        <v>0.3919729983736602</v>
+        <v>0.3630563789770207</v>
       </c>
       <c r="M11">
-        <v>0.2677456231846378</v>
+        <v>0.3938289378358775</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.936010156161331</v>
+        <v>2.450058169126748</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8087482222837252</v>
+        <v>1.612719072221694</v>
       </c>
       <c r="C12">
-        <v>0.2466059296246073</v>
+        <v>0.124837395052694</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2265892160291685</v>
+        <v>0.1242561971754306</v>
       </c>
       <c r="F12">
-        <v>2.483153514304519</v>
+        <v>1.53045341689338</v>
       </c>
       <c r="G12">
-        <v>0.002500627141204735</v>
+        <v>0.0008160477724547177</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1073921692607911</v>
+        <v>0.1078697171216447</v>
       </c>
       <c r="K12">
-        <v>0.4071470610232097</v>
+        <v>1.221997763866881</v>
       </c>
       <c r="L12">
-        <v>0.3937398716669662</v>
+        <v>0.3710501187471209</v>
       </c>
       <c r="M12">
-        <v>0.2702698926457856</v>
+        <v>0.403670558153685</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.930329576054334</v>
+        <v>2.456929766045533</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8063665530126798</v>
+        <v>1.603984060401814</v>
       </c>
       <c r="C13">
-        <v>0.2466454349421063</v>
+        <v>0.1249284754909468</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2265521540918876</v>
+        <v>0.1239128164369809</v>
       </c>
       <c r="F13">
-        <v>2.4829560920072</v>
+        <v>1.526692231324262</v>
       </c>
       <c r="G13">
-        <v>0.002500759364160166</v>
+        <v>0.0008162777931398754</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1073165536476424</v>
+        <v>0.1076736090153645</v>
       </c>
       <c r="K13">
-        <v>0.4052221116022281</v>
+        <v>1.215456389340176</v>
       </c>
       <c r="L13">
-        <v>0.3933584757314463</v>
+        <v>0.3693263512361966</v>
       </c>
       <c r="M13">
-        <v>0.2697256909617209</v>
+        <v>0.4015490671143311</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.93153825386139</v>
+        <v>2.455410397570574</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.798604514407657</v>
+        <v>1.575522332856053</v>
       </c>
       <c r="C14">
-        <v>0.2467750183535387</v>
+        <v>0.1252269179008003</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2264330853682743</v>
+        <v>0.1227964650877844</v>
       </c>
       <c r="F14">
-        <v>2.482339916292887</v>
+        <v>1.51449858701055</v>
       </c>
       <c r="G14">
-        <v>0.002501192598270264</v>
+        <v>0.0008170295195678294</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1070698202784541</v>
+        <v>0.1070342320572166</v>
       </c>
       <c r="K14">
-        <v>0.3989445617675074</v>
+        <v>1.194136800652871</v>
       </c>
       <c r="L14">
-        <v>0.3921179686675345</v>
+        <v>0.3637130563275406</v>
       </c>
       <c r="M14">
-        <v>0.2679530459763058</v>
+        <v>0.3946377551505762</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.935536170561164</v>
+        <v>2.450605806513522</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7938539741218165</v>
+        <v>1.558107584151855</v>
       </c>
       <c r="C15">
-        <v>0.246854967023971</v>
+        <v>0.1254108032011239</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2263615350905148</v>
+        <v>0.1221153248759457</v>
       </c>
       <c r="F15">
-        <v>2.481983751450272</v>
+        <v>1.507084724689122</v>
       </c>
       <c r="G15">
-        <v>0.002501459524496706</v>
+        <v>0.0008174911958115676</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.106918586023113</v>
+        <v>0.1066427255836473</v>
       </c>
       <c r="K15">
-        <v>0.3950994879228631</v>
+        <v>1.181087869721836</v>
       </c>
       <c r="L15">
-        <v>0.3913606669909626</v>
+        <v>0.3602810357252082</v>
       </c>
       <c r="M15">
-        <v>0.2668688779353658</v>
+        <v>0.3904099185862364</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.938028163093804</v>
+        <v>2.447777396018694</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7666913019581614</v>
+        <v>1.458585388239783</v>
       </c>
       <c r="C16">
-        <v>0.2473219484925018</v>
+        <v>0.1264810500600753</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2259727403650551</v>
+        <v>0.1182517839782875</v>
       </c>
       <c r="F16">
-        <v>2.4802687925729</v>
+        <v>1.465421639120919</v>
       </c>
       <c r="G16">
-        <v>0.002503013091212808</v>
+        <v>0.0008201559723288184</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1060503602478704</v>
+        <v>0.1044010172565528</v>
       </c>
       <c r="K16">
-        <v>0.3730668846302194</v>
+        <v>1.106451732128278</v>
       </c>
       <c r="L16">
-        <v>0.3870599968786337</v>
+        <v>0.3407065085220324</v>
       </c>
       <c r="M16">
-        <v>0.2606810290328028</v>
+        <v>0.366263107763146</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.952970270325068</v>
+        <v>2.433282809349663</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7500826156762344</v>
+        <v>1.397761276972318</v>
       </c>
       <c r="C17">
-        <v>0.2476163185242442</v>
+        <v>0.1271522179286251</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2257532125868416</v>
+        <v>0.1159161520838374</v>
       </c>
       <c r="F17">
-        <v>2.479507915253023</v>
+        <v>1.440573809477726</v>
       </c>
       <c r="G17">
-        <v>0.002503987541912695</v>
+        <v>0.0008218081540848834</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1055163524983094</v>
+        <v>0.1030273088220852</v>
       </c>
       <c r="K17">
-        <v>0.3595526994470788</v>
+        <v>1.060780770975811</v>
       </c>
       <c r="L17">
-        <v>0.3844567083979769</v>
+        <v>0.3287776189603875</v>
       </c>
       <c r="M17">
-        <v>0.256907498262585</v>
+        <v>0.3515183396938397</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.962727135592786</v>
+        <v>2.425875998090788</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7405500599282107</v>
+        <v>1.362855200096362</v>
       </c>
       <c r="C18">
-        <v>0.2477885385148504</v>
+        <v>0.1275435874347544</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.225633939028846</v>
+        <v>0.1145850642299138</v>
       </c>
       <c r="F18">
-        <v>2.479177382419678</v>
+        <v>1.426534425823192</v>
       </c>
       <c r="G18">
-        <v>0.002504555898100197</v>
+        <v>0.0008227650000185138</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.10520870468185</v>
+        <v>0.102237683870154</v>
       </c>
       <c r="K18">
-        <v>0.3517806110440631</v>
+        <v>1.034550458985166</v>
       </c>
       <c r="L18">
-        <v>0.3829722903898158</v>
+        <v>0.3219442693399515</v>
       </c>
       <c r="M18">
-        <v>0.2547453905509798</v>
+        <v>0.3430611953123659</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.968556020928048</v>
+        <v>2.422144522860179</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.737326010204157</v>
+        <v>1.351049502801658</v>
       </c>
       <c r="C19">
-        <v>0.2478473489298167</v>
+        <v>0.1276770107957397</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2255947576279169</v>
+        <v>0.1141364588966773</v>
       </c>
       <c r="F19">
-        <v>2.479083873438015</v>
+        <v>1.421823463046337</v>
       </c>
       <c r="G19">
-        <v>0.002504749688405014</v>
+        <v>0.0008230901113448804</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1051044550159759</v>
+        <v>0.1019704102148609</v>
       </c>
       <c r="K19">
-        <v>0.3491492856905722</v>
+        <v>1.025675539147471</v>
       </c>
       <c r="L19">
-        <v>0.3824719165298944</v>
+        <v>0.3196352684970378</v>
       </c>
       <c r="M19">
-        <v>0.2540147733457019</v>
+        <v>0.3402016736877016</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.970566853867439</v>
+        <v>2.420970341766662</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7518485401755868</v>
+        <v>1.404227866377823</v>
       </c>
       <c r="C20">
-        <v>0.2475846816890908</v>
+        <v>0.1270802183769035</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2257758583044556</v>
+        <v>0.1161635020124514</v>
       </c>
       <c r="F20">
-        <v>2.479577829156341</v>
+        <v>1.443192580602243</v>
       </c>
       <c r="G20">
-        <v>0.002503882994977008</v>
+        <v>0.0008216316014285672</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1055732504939684</v>
+        <v>0.1031734898312138</v>
       </c>
       <c r="K20">
-        <v>0.3609912161607554</v>
+        <v>1.065638454555369</v>
       </c>
       <c r="L20">
-        <v>0.384732496375193</v>
+        <v>0.3300445588818519</v>
       </c>
       <c r="M20">
-        <v>0.2573083364100626</v>
+        <v>0.3530854633883251</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.961666043336066</v>
+        <v>2.426609367177122</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.800883594921487</v>
+        <v>1.58387826154302</v>
       </c>
       <c r="C21">
-        <v>0.2467368367491787</v>
+        <v>0.1251390326931734</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2264677706629996</v>
+        <v>0.1231238085190753</v>
       </c>
       <c r="F21">
-        <v>2.482516471857153</v>
+        <v>1.518068620987378</v>
       </c>
       <c r="G21">
-        <v>0.00250106502226294</v>
+        <v>0.0008168084654801187</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1071423133370786</v>
+        <v>0.1072220050555117</v>
       </c>
       <c r="K21">
-        <v>0.4007884088674984</v>
+        <v>1.200396785769669</v>
       </c>
       <c r="L21">
-        <v>0.3924818056227082</v>
+        <v>0.3653604993086503</v>
       </c>
       <c r="M21">
-        <v>0.2684733757601236</v>
+        <v>0.3966666110871344</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.934352892648064</v>
+        <v>2.45199305989442</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8331074030706986</v>
+        <v>1.702118845688773</v>
       </c>
       <c r="C22">
-        <v>0.2462084763161414</v>
+        <v>0.1239186262983303</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2269819072371497</v>
+        <v>0.12779066030431</v>
       </c>
       <c r="F22">
-        <v>2.485388861871598</v>
+        <v>1.569446151893146</v>
       </c>
       <c r="G22">
-        <v>0.002499293090582045</v>
+        <v>0.0008137113762633827</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1081631959107128</v>
+        <v>0.1098736207189859</v>
       </c>
       <c r="K22">
-        <v>0.42680332781066</v>
+        <v>1.288902307498972</v>
       </c>
       <c r="L22">
-        <v>0.3976604573597768</v>
+        <v>0.3887190671008653</v>
       </c>
       <c r="M22">
-        <v>0.2758433925478698</v>
+        <v>0.4253932769153792</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.918433700062366</v>
+        <v>2.473662748815485</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8158930068223071</v>
+        <v>1.638929170922438</v>
       </c>
       <c r="C23">
-        <v>0.2464881215504775</v>
+        <v>0.1245655227896414</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.226701852551674</v>
+        <v>0.1252886686966583</v>
       </c>
       <c r="F23">
-        <v>2.483768815406364</v>
+        <v>1.541791802378896</v>
       </c>
       <c r="G23">
-        <v>0.002500232437423657</v>
+        <v>0.0008153594724072225</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1076187581077832</v>
+        <v>0.1084578205646878</v>
       </c>
       <c r="K23">
-        <v>0.4129183484985219</v>
+        <v>1.241620998831991</v>
       </c>
       <c r="L23">
-        <v>0.3948861310900327</v>
+        <v>0.3762252641230646</v>
       </c>
       <c r="M23">
-        <v>0.2719032496531426</v>
+        <v>0.4100373229481775</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.92675337521564</v>
+        <v>2.461613629016114</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7510501158257057</v>
+        <v>1.401304128002977</v>
       </c>
       <c r="C24">
-        <v>0.2475989754119503</v>
+        <v>0.1271127522324171</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2257655985675804</v>
+        <v>0.1160516387629364</v>
       </c>
       <c r="F24">
-        <v>2.479545888055114</v>
+        <v>1.442007870150306</v>
       </c>
       <c r="G24">
-        <v>0.002503930235149757</v>
+        <v>0.0008217113991015044</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1055475289007504</v>
+        <v>0.10310740097988</v>
       </c>
       <c r="K24">
-        <v>0.360340870832033</v>
+        <v>1.063442214150939</v>
       </c>
       <c r="L24">
-        <v>0.384607774471263</v>
+        <v>0.3294716986429762</v>
       </c>
       <c r="M24">
-        <v>0.2571270945913682</v>
+        <v>0.3523769053926813</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.962145079294885</v>
+        <v>2.426276174171505</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6818858339525207</v>
+        <v>1.147916136585167</v>
       </c>
       <c r="C25">
-        <v>0.2489083964042145</v>
+        <v>0.1300638162120258</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2250232477095722</v>
+        <v>0.1065542192821347</v>
       </c>
       <c r="F25">
-        <v>2.47908660878862</v>
+        <v>1.343927470712543</v>
       </c>
       <c r="G25">
-        <v>0.002508220327561111</v>
+        <v>0.0008288152693820089</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1032943017301733</v>
+        <v>0.09735440475666479</v>
       </c>
       <c r="K25">
-        <v>0.3036640457974329</v>
+        <v>0.8726705777242785</v>
       </c>
       <c r="L25">
-        <v>0.374015620599252</v>
+        <v>0.2800893386022523</v>
       </c>
       <c r="M25">
-        <v>0.2415076037814003</v>
+        <v>0.291068408801884</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.008617351203725</v>
+        <v>2.408186771100077</v>
       </c>
     </row>
   </sheetData>
